--- a/results/good_results/result_0/order.xlsx
+++ b/results/good_results/result_0/order.xlsx
@@ -471,11 +471,19 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>包装区</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
+          <t>焊接区</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>喷漆区</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>包装区</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -542,17 +550,17 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
+          <t>焊接区</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
           <t>喷漆区</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>配置区</t>
-        </is>
-      </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>焊接区</t>
+          <t>配置区</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -579,14 +587,10 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>组装区</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>包装区</t>
-        </is>
-      </c>
+          <t>包装区</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
     </row>
     <row r="7">
@@ -602,24 +606,16 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>喷漆区</t>
+          <t>配置区</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>焊接区</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>配置区</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>包装区</t>
-        </is>
-      </c>
+          <t>包装区</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -634,16 +630,24 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>配置区</t>
+          <t>焊接区</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>包装区</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
+          <t>喷漆区</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>配置区</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>包装区</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -658,19 +662,15 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>组装区</t>
+          <t>配置区</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>配置区</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>包装区</t>
-        </is>
-      </c>
+          <t>包装区</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr"/>
     </row>
     <row r="10">
@@ -686,24 +686,20 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>焊接区</t>
+          <t>配置区</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>喷漆区</t>
+          <t>组装区</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>配置区</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>包装区</t>
-        </is>
-      </c>
+          <t>包装区</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -718,24 +714,16 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>喷漆区</t>
+          <t>配置区</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>焊接区</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>配置区</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>包装区</t>
-        </is>
-      </c>
+          <t>包装区</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -750,7 +738,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>组装区</t>
+          <t>焊接区</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -760,10 +748,14 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>包装区</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr"/>
+          <t>喷漆区</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>包装区</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -778,15 +770,19 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>配置区</t>
+          <t>组装区</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>包装区</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr"/>
+          <t>配置区</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>包装区</t>
+        </is>
+      </c>
       <c r="F13" t="inlineStr"/>
     </row>
     <row r="14">
@@ -802,12 +798,12 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
+          <t>喷漆区</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
           <t>焊接区</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>喷漆区</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -834,12 +830,12 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>配置区</t>
+          <t>组装区</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>组装区</t>
+          <t>配置区</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -862,15 +858,19 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>配置区</t>
+          <t>组装区</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>包装区</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr"/>
+          <t>配置区</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>包装区</t>
+        </is>
+      </c>
       <c r="F16" t="inlineStr"/>
     </row>
   </sheetData>
